--- a/DPI_Table_Audit/PrlMstHeadType_7-10-2024.xlsx
+++ b/DPI_Table_Audit/PrlMstHeadType_7-10-2024.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\e\Git_Repository_16_05-2022\School_EducationPortal3.0_tableSchema\DPI_Table_Audit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\Git\School_EducationPortal3.0_tableSchema\DPI_Table_Audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56188B7-1E90-4F31-B682-638DFEEAD35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BFA4B2CD-1BD2-4FFE-A7CD-600732C0079E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,8 +68,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,25 +488,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C5728F-96E5-4C1F-9ECC-215E68AE79C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F3"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -551,7 +550,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="5">
         <v>2</v>
       </c>
